--- a/PV_ICE/baselines/ReedsSubset/BaselineGraphs-Reeds.xlsx
+++ b/PV_ICE/baselines/ReedsSubset/BaselineGraphs-Reeds.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmirletz\Documents\GitHub\PV_ICE\PV_ICE\baselines\ReedsSubset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C876D5-BB7C-435F-96D0-09586AAB5E90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F6C103-EA55-4524-8549-3A534B2A9D8C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
+    <workbookView xWindow="28680" yWindow="-2340" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{31D47E9D-A833-4D35-B79A-EFF0E4DE6D01}"/>
   </bookViews>
   <sheets>
     <sheet name="mass per m2" sheetId="1" r:id="rId1"/>
@@ -495,121 +495,121 @@
                   <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>8080</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8160</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8320</c:v>
+                  <c:v>8292.7000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8280</c:v>
+                  <c:v>8225.6625000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8240</c:v>
+                  <c:v>8158.8874999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8225</c:v>
+                  <c:v>8289.75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8750</c:v>
+                  <c:v>8350.15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8800</c:v>
+                  <c:v>8607.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8800</c:v>
+                  <c:v>8898.125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8800</c:v>
+                  <c:v>8924.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8800</c:v>
+                  <c:v>8950.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8800</c:v>
+                  <c:v>8940.8250000000007</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8800</c:v>
+                  <c:v>8928</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8800</c:v>
+                  <c:v>8945.9333330000009</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8800</c:v>
+                  <c:v>8962.9333330000009</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8800</c:v>
+                  <c:v>8979</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8875</c:v>
+                  <c:v>9040.0694440000007</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8875</c:v>
+                  <c:v>9100.3611110000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8875</c:v>
+                  <c:v>9159.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1063,130 +1063,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>95.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>95.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82</c:v>
+                  <c:v>96.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83</c:v>
+                  <c:v>96.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83</c:v>
+                  <c:v>97.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83</c:v>
+                  <c:v>97.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83</c:v>
+                  <c:v>97.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83</c:v>
+                  <c:v>97.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83</c:v>
+                  <c:v>98.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83</c:v>
+                  <c:v>98.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1669,130 +1669,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2887,130 +2887,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>77</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>79</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>79</c:v>
+                  <c:v>95.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>80</c:v>
+                  <c:v>95.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>81</c:v>
+                  <c:v>95.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>82</c:v>
+                  <c:v>95.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>82</c:v>
+                  <c:v>96.2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>82</c:v>
+                  <c:v>96.4</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83</c:v>
+                  <c:v>96.6</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83</c:v>
+                  <c:v>96.9</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83</c:v>
+                  <c:v>97.1</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83</c:v>
+                  <c:v>97.4</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83</c:v>
+                  <c:v>97.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83</c:v>
+                  <c:v>97.8</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83</c:v>
+                  <c:v>98.1</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83</c:v>
+                  <c:v>98.3</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83</c:v>
+                  <c:v>98.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83</c:v>
+                  <c:v>98.8</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>83</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3493,130 +3493,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>100</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8793,130 +8793,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1000</c:v>
+                  <c:v>2001.3003900000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1000</c:v>
+                  <c:v>1987.1506589999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000</c:v>
+                  <c:v>1966.59313</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>1962.9861980000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1000</c:v>
+                  <c:v>1619.458128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1000</c:v>
+                  <c:v>1592.739726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1000</c:v>
+                  <c:v>1495.242424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1000</c:v>
+                  <c:v>1412.526316</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1000</c:v>
+                  <c:v>1379.8208959999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1000</c:v>
+                  <c:v>1361.666667</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1000</c:v>
+                  <c:v>1343.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1000</c:v>
+                  <c:v>1315.058824</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1000</c:v>
+                  <c:v>1293.617647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1000</c:v>
+                  <c:v>1272.176471</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1000</c:v>
+                  <c:v>1229.294118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1000</c:v>
+                  <c:v>1186.4117650000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1000</c:v>
+                  <c:v>1157.823529</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1000</c:v>
+                  <c:v>1129.2352940000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1000</c:v>
+                  <c:v>1100.6470589999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1000</c:v>
+                  <c:v>1081.5882349999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1000</c:v>
+                  <c:v>1062.5294120000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1000</c:v>
+                  <c:v>1043.4705879999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11897,121 +11897,121 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.32</c:v>
+                  <c:v>8.2927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2799999999999994</c:v>
+                  <c:v>8.2256625000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.24</c:v>
+                  <c:v>8.1588875000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2249999999999996</c:v>
+                  <c:v>8.2897499999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.75</c:v>
+                  <c:v>8.3501499999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.6074999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.8981250000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9247499999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9504999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9408250000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9280000000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.945933333000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9629333330000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9789999999999992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.875</c:v>
+                  <c:v>9.0400694440000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1003611109999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12813,130 +12813,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.0013003899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.9871506589999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.9665931299999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.9629861980000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.619458128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.592739726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.495242424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.4125263159999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.379820896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.3616666669999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.3436470589999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.3150588239999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.293617647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.2721764710000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.2292941180000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.1864117650000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.1578235290000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.1292352940000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.1006470589999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0815882349999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0625294120000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14388,121 +14388,121 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.08</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>8.16</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.32</c:v>
+                  <c:v>8.2927</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.2799999999999994</c:v>
+                  <c:v>8.2256625000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.24</c:v>
+                  <c:v>8.1588875000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8.2249999999999996</c:v>
+                  <c:v>8.2897499999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8.75</c:v>
+                  <c:v>8.3501499999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.6074999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.8981250000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9247499999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9504999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9408250000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9280000000000008</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.945933333000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9629333330000005</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.8000000000000007</c:v>
+                  <c:v>8.9789999999999992</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.875</c:v>
+                  <c:v>9.0400694440000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1003611109999998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>8.875</c:v>
+                  <c:v>9.1598749999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14985,130 +14985,130 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="42"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2.0013003899999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.9871506589999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>1.9665931299999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>1.9629861980000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>1.619458128</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>1.592739726</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>1.495242424</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1</c:v>
+                  <c:v>1.4125263159999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>1.379820896</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>1.3616666669999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.3436470589999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>1.3150588239999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>1.293617647</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>1.2721764710000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>1.2292941180000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>1.1864117650000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>1.1578235290000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>1.1292352940000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1</c:v>
+                  <c:v>1.1006470589999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1</c:v>
+                  <c:v>1.0815882349999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1</c:v>
+                  <c:v>1.0625294120000002</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1</c:v>
+                  <c:v>1.0434705879999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -23427,8 +23427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D7BEC5-C527-4A05-96EF-71A772E43E2F}">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -23538,7 +23538,7 @@
         <v>419.22</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>2001.3003900000001</v>
       </c>
       <c r="E3">
         <v>5.3760000000000003</v>
@@ -23548,27 +23548,27 @@
       </c>
       <c r="G3">
         <f>SUM(B3:F3)</f>
-        <v>9450.1959999999999</v>
+        <v>10451.49639</v>
       </c>
       <c r="H3">
         <f>B3/$G3*100</f>
-        <v>84.65432886259714</v>
+        <v>76.544063179837167</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:L3" si="0">C3/$G3*100</f>
-        <v>4.4360984682222462</v>
+        <f t="shared" ref="I3:K3" si="0">C3/$G3*100</f>
+        <v>4.0111002707814167</v>
       </c>
       <c r="J3">
         <f t="shared" si="0"/>
-        <v>10.581791107824642</v>
+        <v>19.148457936749093</v>
       </c>
       <c r="K3">
         <f t="shared" si="0"/>
-        <v>5.6887708995665275E-2</v>
+        <v>5.1437610456850573E-2</v>
       </c>
       <c r="L3">
         <f>F3/$G3*100</f>
-        <v>0.27089385236031083</v>
+        <v>0.24494100217547893</v>
       </c>
       <c r="P3">
         <v>14.57777778</v>
@@ -23597,7 +23597,7 @@
         <v>419.22</v>
       </c>
       <c r="D4">
-        <v>1000</v>
+        <v>1987.1506589999999</v>
       </c>
       <c r="E4">
         <v>5.3760000000000003</v>
@@ -23607,27 +23607,27 @@
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G44" si="1">SUM(B4:F4)</f>
-        <v>9436.9234161699987</v>
+        <v>10424.07407517</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H44" si="2">B4/$G4*100</f>
-        <v>84.773391148773598</v>
+        <v>76.745425467149062</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I44" si="3">C4/$G4*100</f>
-        <v>4.4423376296736077</v>
+        <v>4.0216521580422793</v>
       </c>
       <c r="J4">
         <f t="shared" ref="J4:J44" si="4">D4/$G4*100</f>
-        <v>10.5966738935967</v>
+        <v>19.063090349035079</v>
       </c>
       <c r="K4">
         <f t="shared" ref="K4:K44" si="5">E4/$G4*100</f>
-        <v>5.6967718851975858E-2</v>
+        <v>5.1572925913924178E-2</v>
       </c>
       <c r="L4">
         <f t="shared" ref="L4:L44" si="6">F4/$G4*100</f>
-        <v>0.13062960910414079</v>
+        <v>0.11825909985965789</v>
       </c>
       <c r="P4">
         <v>14.7</v>
@@ -23659,7 +23659,7 @@
         <v>419.22</v>
       </c>
       <c r="D5">
-        <v>1000</v>
+        <v>1966.59313</v>
       </c>
       <c r="E5">
         <v>5.3760000000000003</v>
@@ -23669,27 +23669,27 @@
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
-        <v>9434.868846809999</v>
+        <v>10401.461976809998</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
-        <v>84.791851692828374</v>
+        <v>76.912265005015215</v>
       </c>
       <c r="I5">
         <f t="shared" si="3"/>
-        <v>4.4433050083334384</v>
+        <v>4.0303949669253107</v>
       </c>
       <c r="J5">
         <f t="shared" si="4"/>
-        <v>10.598981461603547</v>
+        <v>18.906891496450292</v>
       </c>
       <c r="K5">
         <f t="shared" si="5"/>
-        <v>5.6980124337580658E-2</v>
+        <v>5.1685042083370235E-2</v>
       </c>
       <c r="L5">
         <f t="shared" si="6"/>
-        <v>0.10888171289708314</v>
+        <v>9.8763489525830653E-2</v>
       </c>
       <c r="P5">
         <v>15.1</v>
@@ -23712,13 +23712,13 @@
         <v>2012</v>
       </c>
       <c r="B6">
-        <v>8000</v>
+        <v>8080</v>
       </c>
       <c r="C6">
         <v>419.22</v>
       </c>
       <c r="D6">
-        <v>1000</v>
+        <v>1962.9861980000001</v>
       </c>
       <c r="E6">
         <v>5.3760000000000003</v>
@@ -23728,27 +23728,27 @@
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>9432.8142774489988</v>
+        <v>10475.800475448999</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
-        <v>84.810320278705959</v>
+        <v>77.130144077640864</v>
       </c>
       <c r="I6">
         <f t="shared" si="3"/>
-        <v>4.4442728084048904</v>
+        <v>4.001794430721362</v>
       </c>
       <c r="J6">
         <f t="shared" si="4"/>
-        <v>10.601290034838245</v>
+        <v>18.73829310323768</v>
       </c>
       <c r="K6">
         <f t="shared" si="5"/>
-        <v>5.6992535227290406E-2</v>
+        <v>5.131827407938086E-2</v>
       </c>
       <c r="L6">
         <f t="shared" si="6"/>
-        <v>8.7124342823619583E-2</v>
+        <v>7.845011432071744E-2</v>
       </c>
       <c r="P6">
         <v>15.4</v>
@@ -23777,7 +23777,7 @@
         <v>419.22</v>
       </c>
       <c r="D7">
-        <v>1000</v>
+        <v>1619.458128</v>
       </c>
       <c r="E7">
         <v>5.3760000000000003</v>
@@ -23787,27 +23787,27 @@
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
-        <v>9590.348794214</v>
+        <v>10209.806922214</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>85.085539380205333</v>
+        <v>79.923156844874995</v>
       </c>
       <c r="I7">
         <f t="shared" si="3"/>
-        <v>4.371269585658049</v>
+        <v>4.1060521829054526</v>
       </c>
       <c r="J7">
         <f t="shared" si="4"/>
-        <v>10.427149433848692</v>
+        <v>15.861789947040645</v>
       </c>
       <c r="K7">
         <f t="shared" si="5"/>
-        <v>5.6056355356370574E-2</v>
+        <v>5.2655256274270583E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="6"/>
-        <v>5.9985244931558129E-2</v>
+        <v>5.634576890463374E-2</v>
       </c>
       <c r="P7">
         <v>16</v>
@@ -23830,13 +23830,13 @@
         <v>2014</v>
       </c>
       <c r="B8">
-        <v>8320</v>
+        <v>8292.7000000000007</v>
       </c>
       <c r="C8">
         <v>419.22</v>
       </c>
       <c r="D8">
-        <v>1000</v>
+        <v>1592.739726</v>
       </c>
       <c r="E8">
         <v>5.3760000000000003</v>
@@ -23846,27 +23846,27 @@
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
-        <v>9749.9378803420004</v>
+        <v>10315.377606342001</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>85.333877016539077</v>
+        <v>80.391628076722682</v>
       </c>
       <c r="I8">
         <f t="shared" si="3"/>
-        <v>4.2997197022684519</v>
+        <v>4.0640296070427828</v>
       </c>
       <c r="J8">
         <f t="shared" si="4"/>
-        <v>10.25647560294941</v>
+        <v>15.440440348211462</v>
       </c>
       <c r="K8">
         <f t="shared" si="5"/>
-        <v>5.5138812841456025E-2</v>
+        <v>5.2116366507948091E-2</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>5.4788865401598046E-2</v>
+        <v>5.1785601515118136E-2</v>
       </c>
       <c r="P8">
         <v>16.3</v>
@@ -23889,13 +23889,13 @@
         <v>2015</v>
       </c>
       <c r="B9">
-        <v>8280</v>
+        <v>8225.6625000000004</v>
       </c>
       <c r="C9">
         <v>419.22</v>
       </c>
       <c r="D9">
-        <v>1000</v>
+        <v>1495.242424</v>
       </c>
       <c r="E9">
         <v>5.7881600000000004</v>
@@ -23905,27 +23905,27 @@
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
-        <v>9709.5282125969989</v>
+        <v>10150.433136596999</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>85.277057944562642</v>
+        <v>81.037551691687796</v>
       </c>
       <c r="I9">
         <f t="shared" si="3"/>
-        <v>4.3176145207149217</v>
+        <v>4.1300700606412377</v>
       </c>
       <c r="J9">
         <f t="shared" si="4"/>
-        <v>10.299161587507566</v>
+        <v>14.73082383656083</v>
       </c>
       <c r="K9">
         <f t="shared" si="5"/>
-        <v>5.9613195134347791E-2</v>
+        <v>5.7023773489340179E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="6"/>
-        <v>4.6552752080536212E-2</v>
+        <v>4.4530637620803816E-2</v>
       </c>
       <c r="P9">
         <v>17</v>
@@ -23951,13 +23951,13 @@
         <v>2016</v>
       </c>
       <c r="B10">
-        <v>8240</v>
+        <v>8158.8874999999998</v>
       </c>
       <c r="C10">
         <v>419.22</v>
       </c>
       <c r="D10">
-        <v>1000</v>
+        <v>1412.526316</v>
       </c>
       <c r="E10">
         <v>6.2003199999999996</v>
@@ -23967,27 +23967,27 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>9669.5200770089996</v>
+        <v>10000.933893009</v>
       </c>
       <c r="H10">
         <f t="shared" si="2"/>
-        <v>85.216225152601552</v>
+        <v>81.581256183518477</v>
       </c>
       <c r="I10">
         <f t="shared" si="3"/>
-        <v>4.3354788723875757</v>
+        <v>4.1918085299318832</v>
       </c>
       <c r="J10">
         <f t="shared" si="4"/>
-        <v>10.341774897160382</v>
+        <v>14.123944134731307</v>
       </c>
       <c r="K10">
         <f t="shared" si="5"/>
-        <v>6.4122313730361452E-2</v>
+        <v>6.1997410105212668E-2</v>
       </c>
       <c r="L10">
         <f t="shared" si="6"/>
-        <v>4.2398764120133534E-2</v>
+        <v>4.099374171312014E-2</v>
       </c>
       <c r="P10">
         <v>17.5</v>
@@ -24010,13 +24010,13 @@
         <v>2017</v>
       </c>
       <c r="B11">
-        <v>8225</v>
+        <v>8289.75</v>
       </c>
       <c r="C11">
         <v>419.22</v>
       </c>
       <c r="D11">
-        <v>1000</v>
+        <v>1379.8208959999999</v>
       </c>
       <c r="E11">
         <v>7.2038399999999996</v>
@@ -24026,27 +24026,27 @@
       </c>
       <c r="G11">
         <f t="shared" si="1"/>
-        <v>9655.5029503009991</v>
+        <v>10100.073846300998</v>
       </c>
       <c r="H11">
         <f t="shared" si="2"/>
-        <v>85.184583779176364</v>
+        <v>82.076132572396958</v>
       </c>
       <c r="I11">
         <f t="shared" si="3"/>
-        <v>4.3417727917211328</v>
+        <v>4.1506627216743874</v>
       </c>
       <c r="J11">
         <f t="shared" si="4"/>
-        <v>10.356788301419618</v>
+        <v>13.661493143491606</v>
       </c>
       <c r="K11">
         <f t="shared" si="5"/>
-        <v>7.4608645837298704E-2</v>
+        <v>7.1324627023774678E-2</v>
       </c>
       <c r="L11">
         <f t="shared" si="6"/>
-        <v>4.224648184559706E-2</v>
+        <v>4.0386935413288229E-2</v>
       </c>
       <c r="P11">
         <v>17.7</v>
@@ -24069,13 +24069,13 @@
         <v>2018</v>
       </c>
       <c r="B12">
-        <v>8750</v>
+        <v>8350.15</v>
       </c>
       <c r="C12">
         <v>410.85500830000001</v>
       </c>
       <c r="D12">
-        <v>1000</v>
+        <v>1361.666667</v>
       </c>
       <c r="E12">
         <v>7.45472</v>
@@ -24085,27 +24085,27 @@
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
-        <v>10172.622562123001</v>
+        <v>10134.439229122998</v>
       </c>
       <c r="H12">
         <f t="shared" si="2"/>
-        <v>86.015183858093494</v>
+        <v>82.393804049901973</v>
       </c>
       <c r="I12">
         <f t="shared" si="3"/>
-        <v>4.0388307517649178</v>
+        <v>4.0540477772005357</v>
       </c>
       <c r="J12">
         <f t="shared" si="4"/>
-        <v>9.8303067266392574</v>
+        <v>13.436033669105482</v>
       </c>
       <c r="K12">
         <f t="shared" si="5"/>
-        <v>7.3282184161212197E-2</v>
+        <v>7.3558288045949521E-2</v>
       </c>
       <c r="L12">
         <f t="shared" si="6"/>
-        <v>4.23964793411142E-2</v>
+        <v>4.255621574607063E-2</v>
       </c>
       <c r="P12">
         <v>18.399999999999999</v>
@@ -24128,13 +24128,13 @@
         <v>2019</v>
       </c>
       <c r="B13">
-        <v>8800</v>
+        <v>8607.5</v>
       </c>
       <c r="C13">
         <v>402.1406667</v>
       </c>
       <c r="D13">
-        <v>1000</v>
+        <v>1343.6470589999999</v>
       </c>
       <c r="E13">
         <v>8.26112</v>
@@ -24144,27 +24144,27 @@
       </c>
       <c r="G13">
         <f t="shared" si="1"/>
-        <v>10214.549096509998</v>
+        <v>10365.696155509999</v>
       </c>
       <c r="H13">
         <f t="shared" si="2"/>
-        <v>86.15162467628349</v>
+        <v>83.038320541786177</v>
       </c>
       <c r="I13">
         <f t="shared" si="3"/>
-        <v>3.9369399755237291</v>
+        <v>3.8795336142111183</v>
       </c>
       <c r="J13">
         <f t="shared" si="4"/>
-        <v>9.7899573495776693</v>
+        <v>12.962439172845809</v>
       </c>
       <c r="K13">
         <f t="shared" si="5"/>
-        <v>8.0876012459743074E-2</v>
+        <v>7.9696721532867928E-2</v>
       </c>
       <c r="L13">
         <f t="shared" si="6"/>
-        <v>4.0601986155385072E-2</v>
+        <v>4.0009949624034202E-2</v>
       </c>
       <c r="P13">
         <v>19.2</v>
@@ -24187,13 +24187,13 @@
         <v>2020</v>
       </c>
       <c r="B14">
-        <v>8800</v>
+        <v>8898.125</v>
       </c>
       <c r="C14">
         <v>380.05398330000003</v>
       </c>
       <c r="D14">
-        <v>1000</v>
+        <v>1315.058824</v>
       </c>
       <c r="E14">
         <v>8.2252799999999997</v>
@@ -24203,27 +24203,27 @@
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
-        <v>10191.874228745</v>
+        <v>10605.058052745</v>
       </c>
       <c r="H14">
         <f t="shared" si="2"/>
-        <v>86.343294692360104</v>
+        <v>83.90453834146453</v>
       </c>
       <c r="I14">
         <f t="shared" si="3"/>
-        <v>3.72899012262241</v>
+        <v>3.5837048831772056</v>
       </c>
       <c r="J14">
         <f t="shared" si="4"/>
-        <v>9.8117380332227402</v>
+        <v>12.400298211093826</v>
       </c>
       <c r="K14">
         <f t="shared" si="5"/>
-        <v>8.0704292609906331E-2</v>
+        <v>7.7559971469189443E-2</v>
       </c>
       <c r="L14">
         <f t="shared" si="6"/>
-        <v>3.5272859184828018E-2</v>
+        <v>3.3898592795250981E-2</v>
       </c>
       <c r="P14">
         <v>20.252588490000001</v>
@@ -24249,13 +24249,13 @@
         <v>2021</v>
       </c>
       <c r="B15">
-        <v>8800</v>
+        <v>8924.75</v>
       </c>
       <c r="C15">
         <v>367.38034160000001</v>
       </c>
       <c r="D15">
-        <v>1000</v>
+        <v>1293.617647</v>
       </c>
       <c r="E15">
         <v>8.2700800000000001</v>
@@ -24265,27 +24265,27 @@
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
-        <v>10178.991700469</v>
+        <v>10597.359347469001</v>
       </c>
       <c r="H15">
         <f t="shared" si="2"/>
-        <v>86.452570735415151</v>
+        <v>84.21673463523274</v>
       </c>
       <c r="I15">
         <f t="shared" si="3"/>
-        <v>3.6092017010198845</v>
+        <v>3.4667159011432651</v>
       </c>
       <c r="J15">
         <f t="shared" si="4"/>
-        <v>9.8241557653880864</v>
+        <v>12.206981046735558</v>
       </c>
       <c r="K15">
         <f t="shared" si="5"/>
-        <v>8.1246554112220704E-2</v>
+        <v>7.80390635896967E-2</v>
       </c>
       <c r="L15">
         <f t="shared" si="6"/>
-        <v>3.2825244064655736E-2</v>
+        <v>3.1529353298734818E-2</v>
       </c>
       <c r="P15">
         <v>20.894864800000001</v>
@@ -24308,13 +24308,13 @@
         <v>2022</v>
       </c>
       <c r="B16">
-        <v>8800</v>
+        <v>8950.5</v>
       </c>
       <c r="C16">
         <v>354.70670000000001</v>
       </c>
       <c r="D16">
-        <v>1000</v>
+        <v>1272.176471</v>
       </c>
       <c r="E16">
         <v>8.3148800000000005</v>
@@ -24324,27 +24324,27 @@
       </c>
       <c r="G16">
         <f t="shared" si="1"/>
-        <v>10166.115214022</v>
+        <v>10588.791685022001</v>
       </c>
       <c r="H16">
         <f t="shared" si="2"/>
-        <v>86.562072283641498</v>
+        <v>84.528058217073166</v>
       </c>
       <c r="I16">
         <f t="shared" si="3"/>
-        <v>3.4891076141922661</v>
+        <v>3.3498316951662934</v>
       </c>
       <c r="J16">
         <f t="shared" si="4"/>
-        <v>9.836599123141081</v>
+        <v>12.01436867248519</v>
       </c>
       <c r="K16">
         <f t="shared" si="5"/>
-        <v>8.1790141317023307E-2</v>
+        <v>7.8525295872630296E-2</v>
       </c>
       <c r="L16">
         <f t="shared" si="6"/>
-        <v>3.043083770812461E-2</v>
+        <v>2.9216119402707581E-2</v>
       </c>
       <c r="P16">
         <v>21.362882320000001</v>
@@ -24367,13 +24367,13 @@
         <v>2023</v>
       </c>
       <c r="B17">
-        <v>8800</v>
+        <v>8940.8250000000007</v>
       </c>
       <c r="C17">
         <v>348.49603339999999</v>
       </c>
       <c r="D17">
-        <v>1000</v>
+        <v>1229.294118</v>
       </c>
       <c r="E17">
         <v>8.3865599999999993</v>
@@ -24383,27 +24383,27 @@
       </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>10159.781457282001</v>
+        <v>10529.900575282001</v>
       </c>
       <c r="H17">
         <f t="shared" si="2"/>
-        <v>86.616036348819492</v>
+        <v>84.908921371848351</v>
       </c>
       <c r="I17">
         <f t="shared" si="3"/>
-        <v>3.4301528518629332</v>
+        <v>3.3095852226569278</v>
       </c>
       <c r="J17">
         <f t="shared" si="4"/>
-        <v>9.8427314032749411</v>
+        <v>11.674318377570039</v>
       </c>
       <c r="K17">
         <f t="shared" si="5"/>
-        <v>8.2546657477449492E-2</v>
+        <v>7.9645196457853534E-2</v>
       </c>
       <c r="L17">
         <f t="shared" si="6"/>
-        <v>2.8532738565180907E-2</v>
+        <v>2.7529831466830974E-2</v>
       </c>
       <c r="P17">
         <v>21.733112049999999</v>
@@ -24426,13 +24426,13 @@
         <v>2024</v>
       </c>
       <c r="B18">
-        <v>8800</v>
+        <v>8928</v>
       </c>
       <c r="C18">
         <v>342.2853667</v>
       </c>
       <c r="D18">
-        <v>1000</v>
+        <v>1186.4117650000001</v>
       </c>
       <c r="E18">
         <v>8.45824</v>
@@ -24442,27 +24442,27 @@
       </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>10153.436502107001</v>
+        <v>10467.848267107001</v>
       </c>
       <c r="H18">
         <f t="shared" si="2"/>
-        <v>86.670163330157806</v>
+        <v>85.289734548926845</v>
       </c>
       <c r="I18">
         <f t="shared" si="3"/>
-        <v>3.3711282542513592</v>
+        <v>3.269873215258186</v>
       </c>
       <c r="J18">
         <f t="shared" si="4"/>
-        <v>9.8488821966088427</v>
+        <v>11.333864751632367</v>
       </c>
       <c r="K18">
         <f t="shared" si="5"/>
-        <v>8.3304209350644781E-2</v>
+        <v>8.0802088300976141E-2</v>
       </c>
       <c r="L18">
         <f t="shared" si="6"/>
-        <v>2.6522009631332021E-2</v>
+        <v>2.5725395881614505E-2</v>
       </c>
       <c r="P18">
         <v>22.040369699999999</v>
@@ -24485,13 +24485,13 @@
         <v>2025</v>
       </c>
       <c r="B19">
-        <v>8800</v>
+        <v>8945.9333330000009</v>
       </c>
       <c r="C19">
         <v>336.01129950000001</v>
       </c>
       <c r="D19">
-        <v>1000</v>
+        <v>1157.823529</v>
       </c>
       <c r="E19">
         <v>8.1954133329999994</v>
@@ -24501,27 +24501,27 @@
       </c>
       <c r="G19">
         <f t="shared" si="1"/>
-        <v>10146.749663881999</v>
+        <v>10450.506525882</v>
       </c>
       <c r="H19">
         <f t="shared" si="2"/>
-        <v>86.727280079887649</v>
+        <v>85.602868251833215</v>
       </c>
       <c r="I19">
         <f t="shared" si="3"/>
-        <v>3.3115166001981264</v>
+        <v>3.2152632857347685</v>
       </c>
       <c r="J19">
         <f t="shared" si="4"/>
-        <v>9.8553727363508692</v>
+        <v>11.079113975313099</v>
       </c>
       <c r="K19">
         <f t="shared" si="5"/>
-        <v>8.0768853125174608E-2</v>
+        <v>7.8421206787470277E-2</v>
       </c>
       <c r="L19">
         <f t="shared" si="6"/>
-        <v>2.5061730438189444E-2</v>
+        <v>2.4333280331456285E-2</v>
       </c>
       <c r="P19">
         <v>22.303538889999999</v>
@@ -24547,13 +24547,13 @@
         <v>2026</v>
       </c>
       <c r="B20">
-        <v>8800</v>
+        <v>8962.9333330000009</v>
       </c>
       <c r="C20">
         <v>329.73723219999999</v>
       </c>
       <c r="D20">
-        <v>1000</v>
+        <v>1129.2352940000001</v>
       </c>
       <c r="E20">
         <v>7.9325866669999998</v>
@@ -24563,27 +24563,27 @@
       </c>
       <c r="G20">
         <f t="shared" si="1"/>
-        <v>10140.071081074</v>
+        <v>10432.239708074001</v>
       </c>
       <c r="H20">
         <f t="shared" si="2"/>
-        <v>86.784401506068491</v>
+        <v>85.915714974064144</v>
       </c>
       <c r="I20">
         <f t="shared" si="3"/>
-        <v>3.2518236762209698</v>
+        <v>3.160752066929605</v>
       </c>
       <c r="J20">
         <f t="shared" si="4"/>
-        <v>9.8618638075077829</v>
+        <v>10.824476101004771</v>
       </c>
       <c r="K20">
         <f t="shared" si="5"/>
-        <v>7.8230089351206095E-2</v>
+        <v>7.6039152559546713E-2</v>
       </c>
       <c r="L20">
         <f t="shared" si="6"/>
-        <v>2.3680920851549561E-2</v>
+        <v>2.3017705441924899E-2</v>
       </c>
       <c r="P20">
         <v>22.534045020000001</v>
@@ -24606,13 +24606,13 @@
         <v>2027</v>
       </c>
       <c r="B21">
-        <v>8800</v>
+        <v>8979</v>
       </c>
       <c r="C21">
         <v>323.463165</v>
       </c>
       <c r="D21">
-        <v>1000</v>
+        <v>1100.6470589999999</v>
       </c>
       <c r="E21">
         <v>7.6697600000000001</v>
@@ -24622,27 +24622,27 @@
       </c>
       <c r="G21">
         <f t="shared" si="1"/>
-        <v>10133.399809488999</v>
+        <v>10413.046868489</v>
       </c>
       <c r="H21">
         <f t="shared" si="2"/>
-        <v>86.841535569924005</v>
+        <v>86.228364410530219</v>
       </c>
       <c r="I21">
         <f t="shared" si="3"/>
-        <v>3.192049766921329</v>
+        <v>3.1063258341690014</v>
       </c>
       <c r="J21">
         <f t="shared" si="4"/>
-        <v>9.8683563147640907</v>
+        <v>10.569884807977541</v>
       </c>
       <c r="K21">
         <f t="shared" si="5"/>
-        <v>7.568792452872504E-2</v>
+        <v>7.3655291259751454E-2</v>
       </c>
       <c r="L21">
         <f t="shared" si="6"/>
-        <v>2.2370423861863921E-2</v>
+        <v>2.176965606348932E-2</v>
       </c>
       <c r="P21">
         <v>22.739342440000001</v>
@@ -24665,13 +24665,13 @@
         <v>2028</v>
       </c>
       <c r="B22">
-        <v>8875</v>
+        <v>9040.0694440000007</v>
       </c>
       <c r="C22">
         <v>320.40829330000003</v>
       </c>
       <c r="D22">
-        <v>1000</v>
+        <v>1081.5882349999999</v>
       </c>
       <c r="E22">
         <v>7.3949866670000004</v>
@@ -24681,27 +24681,27 @@
       </c>
       <c r="G22">
         <f t="shared" si="1"/>
-        <v>10204.932914794999</v>
+        <v>10451.590593794999</v>
       </c>
       <c r="H22">
         <f t="shared" si="2"/>
-        <v>86.967744659380585</v>
+        <v>86.494676220545756</v>
       </c>
       <c r="I22">
         <f t="shared" si="3"/>
-        <v>3.1397393395450508</v>
+        <v>3.0656414487783619</v>
       </c>
       <c r="J22">
         <f t="shared" si="4"/>
-        <v>9.7991824968316159</v>
+        <v>10.34855149839229</v>
       </c>
       <c r="K22">
         <f t="shared" si="5"/>
-        <v>7.2464823911569567E-2</v>
+        <v>7.0754653089744324E-2</v>
       </c>
       <c r="L22">
         <f t="shared" si="6"/>
-        <v>2.0868680331180608E-2</v>
+        <v>2.0376179193857268E-2</v>
       </c>
       <c r="P22">
         <v>22.924571610000001</v>
@@ -24724,13 +24724,13 @@
         <v>2029</v>
       </c>
       <c r="B23">
-        <v>8875</v>
+        <v>9100.3611110000002</v>
       </c>
       <c r="C23">
         <v>317.35342170000001</v>
       </c>
       <c r="D23">
-        <v>1000</v>
+        <v>1062.5294120000001</v>
       </c>
       <c r="E23">
         <v>7.1202133329999997</v>
@@ -24740,27 +24740,27 @@
       </c>
       <c r="G23">
         <f t="shared" si="1"/>
-        <v>10201.466411446001</v>
+        <v>10489.356934446001</v>
       </c>
       <c r="H23">
         <f t="shared" si="2"/>
-        <v>86.997296683173786</v>
+        <v>86.75804596862676</v>
       </c>
       <c r="I23">
         <f t="shared" si="3"/>
-        <v>3.110860820400593</v>
+        <v>3.0254802432915886</v>
       </c>
       <c r="J23">
         <f t="shared" si="4"/>
-        <v>9.8025123023294416</v>
+        <v>10.129595347363569</v>
       </c>
       <c r="K23">
         <f t="shared" si="5"/>
-        <v>6.9795978791942603E-2</v>
+        <v>6.7880360802843209E-2</v>
       </c>
       <c r="L23">
         <f t="shared" si="6"/>
-        <v>1.9534215304224438E-2</v>
+        <v>1.8998079915232183E-2</v>
       </c>
       <c r="P23">
         <v>23.093431240000001</v>
@@ -24783,13 +24783,13 @@
         <v>2030</v>
       </c>
       <c r="B24">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C24">
         <v>314.29854999999998</v>
       </c>
       <c r="D24">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E24">
         <v>6.84544</v>
@@ -24799,27 +24799,27 @@
       </c>
       <c r="G24">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H24">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I24">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J24">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K24">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L24">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P24">
         <v>23.248673839999999</v>
@@ -24845,13 +24845,13 @@
         <v>2031</v>
       </c>
       <c r="B25">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C25">
         <v>314.29854999999998</v>
       </c>
       <c r="D25">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E25">
         <v>6.84544</v>
@@ -24861,27 +24861,27 @@
       </c>
       <c r="G25">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H25">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I25">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J25">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K25">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L25">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P25">
         <v>23.392404590000002</v>
@@ -24904,13 +24904,13 @@
         <v>2032</v>
       </c>
       <c r="B26">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C26">
         <v>314.29854999999998</v>
       </c>
       <c r="D26">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E26">
         <v>6.84544</v>
@@ -24920,27 +24920,27 @@
       </c>
       <c r="G26">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H26">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I26">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J26">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K26">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L26">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P26">
         <v>23.526270570000001</v>
@@ -24963,13 +24963,13 @@
         <v>2033</v>
       </c>
       <c r="B27">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C27">
         <v>314.29854999999998</v>
       </c>
       <c r="D27">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E27">
         <v>6.84544</v>
@@ -24979,27 +24979,27 @@
       </c>
       <c r="G27">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H27">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I27">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J27">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K27">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L27">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P27">
         <v>23.651585300000001</v>
@@ -25022,13 +25022,13 @@
         <v>2034</v>
       </c>
       <c r="B28">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C28">
         <v>314.29854999999998</v>
       </c>
       <c r="D28">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E28">
         <v>6.84544</v>
@@ -25038,27 +25038,27 @@
       </c>
       <c r="G28">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H28">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I28">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J28">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K28">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L28">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P28">
         <v>23.769413579999998</v>
@@ -25081,13 +25081,13 @@
         <v>2035</v>
       </c>
       <c r="B29">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C29">
         <v>314.29854999999998</v>
       </c>
       <c r="D29">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E29">
         <v>6.84544</v>
@@ -25097,27 +25097,27 @@
       </c>
       <c r="G29">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H29">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I29">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J29">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K29">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L29">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P29">
         <v>23.880630870000001</v>
@@ -25143,13 +25143,13 @@
         <v>2036</v>
       </c>
       <c r="B30">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C30">
         <v>314.29854999999998</v>
       </c>
       <c r="D30">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E30">
         <v>6.84544</v>
@@ -25159,27 +25159,27 @@
       </c>
       <c r="G30">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H30">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I30">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J30">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K30">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L30">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P30">
         <v>23.985965879999998</v>
@@ -25202,13 +25202,13 @@
         <v>2037</v>
       </c>
       <c r="B31">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C31">
         <v>314.29854999999998</v>
       </c>
       <c r="D31">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E31">
         <v>6.84544</v>
@@ -25218,27 +25218,27 @@
       </c>
       <c r="G31">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H31">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I31">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J31">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K31">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L31">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P31">
         <v>24.08603183</v>
@@ -25261,13 +25261,13 @@
         <v>2038</v>
       </c>
       <c r="B32">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C32">
         <v>314.29854999999998</v>
       </c>
       <c r="D32">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E32">
         <v>6.84544</v>
@@ -25277,27 +25277,27 @@
       </c>
       <c r="G32">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H32">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I32">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J32">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K32">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L32">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P32">
         <v>24.181349740000002</v>
@@ -25320,13 +25320,13 @@
         <v>2039</v>
       </c>
       <c r="B33">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C33">
         <v>314.29854999999998</v>
       </c>
       <c r="D33">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E33">
         <v>6.84544</v>
@@ -25336,27 +25336,27 @@
       </c>
       <c r="G33">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H33">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I33">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J33">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K33">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L33">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P33">
         <v>24.272366120000001</v>
@@ -25379,13 +25379,13 @@
         <v>2040</v>
       </c>
       <c r="B34">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C34">
         <v>314.29854999999998</v>
       </c>
       <c r="D34">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E34">
         <v>6.84544</v>
@@ -25395,27 +25395,27 @@
       </c>
       <c r="G34">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H34">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I34">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J34">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K34">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L34">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P34">
         <v>24.359466650000002</v>
@@ -25441,13 +25441,13 @@
         <v>2041</v>
       </c>
       <c r="B35">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C35">
         <v>314.29854999999998</v>
       </c>
       <c r="D35">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E35">
         <v>6.84544</v>
@@ -25457,27 +25457,27 @@
       </c>
       <c r="G35">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H35">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I35">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J35">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K35">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L35">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P35">
         <v>24.442986730000001</v>
@@ -25500,13 +25500,13 @@
         <v>2042</v>
       </c>
       <c r="B36">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C36">
         <v>314.29854999999998</v>
       </c>
       <c r="D36">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E36">
         <v>6.84544</v>
@@ -25516,27 +25516,27 @@
       </c>
       <c r="G36">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H36">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I36">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J36">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K36">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L36">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P36">
         <v>24.523219999999998</v>
@@ -25559,13 +25559,13 @@
         <v>2043</v>
       </c>
       <c r="B37">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C37">
         <v>314.29854999999998</v>
       </c>
       <c r="D37">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E37">
         <v>6.84544</v>
@@ -25575,27 +25575,27 @@
       </c>
       <c r="G37">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H37">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I37">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J37">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K37">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L37">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P37">
         <v>24.600424960000002</v>
@@ -25618,13 +25618,13 @@
         <v>2044</v>
       </c>
       <c r="B38">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C38">
         <v>314.29854999999998</v>
       </c>
       <c r="D38">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E38">
         <v>6.84544</v>
@@ -25634,27 +25634,27 @@
       </c>
       <c r="G38">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H38">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I38">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J38">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K38">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L38">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P38">
         <v>24.674830409999998</v>
@@ -25677,13 +25677,13 @@
         <v>2045</v>
       </c>
       <c r="B39">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C39">
         <v>314.29854999999998</v>
       </c>
       <c r="D39">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E39">
         <v>6.84544</v>
@@ -25693,27 +25693,27 @@
       </c>
       <c r="G39">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H39">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I39">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J39">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K39">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L39">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P39">
         <v>24.746639890000001</v>
@@ -25739,13 +25739,13 @@
         <v>2046</v>
       </c>
       <c r="B40">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C40">
         <v>314.29854999999998</v>
       </c>
       <c r="D40">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E40">
         <v>6.84544</v>
@@ -25755,27 +25755,27 @@
       </c>
       <c r="G40">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H40">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I40">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J40">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K40">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L40">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P40">
         <v>24.816035240000001</v>
@@ -25798,13 +25798,13 @@
         <v>2047</v>
       </c>
       <c r="B41">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C41">
         <v>314.29854999999998</v>
       </c>
       <c r="D41">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E41">
         <v>6.84544</v>
@@ -25814,27 +25814,27 @@
       </c>
       <c r="G41">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H41">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I41">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J41">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K41">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L41">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P41">
         <v>24.88317962</v>
@@ -25857,13 +25857,13 @@
         <v>2048</v>
       </c>
       <c r="B42">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C42">
         <v>314.29854999999998</v>
       </c>
       <c r="D42">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E42">
         <v>6.84544</v>
@@ -25873,27 +25873,27 @@
       </c>
       <c r="G42">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H42">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I42">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J42">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K42">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L42">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P42">
         <v>24.94822001</v>
@@ -25916,13 +25916,13 @@
         <v>2049</v>
       </c>
       <c r="B43">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C43">
         <v>314.29854999999998</v>
       </c>
       <c r="D43">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E43">
         <v>6.84544</v>
@@ -25932,27 +25932,27 @@
       </c>
       <c r="G43">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H43">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I43">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J43">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K43">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L43">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P43">
         <v>25.011289269999999</v>
@@ -25975,13 +25975,13 @@
         <v>2050</v>
       </c>
       <c r="B44">
-        <v>8875</v>
+        <v>9159.875</v>
       </c>
       <c r="C44">
         <v>314.29854999999998</v>
       </c>
       <c r="D44">
-        <v>1000</v>
+        <v>1043.4705879999999</v>
       </c>
       <c r="E44">
         <v>6.84544</v>
@@ -25991,27 +25991,27 @@
       </c>
       <c r="G44">
         <f t="shared" si="1"/>
-        <v>10198.000301208998</v>
+        <v>10526.345889208998</v>
       </c>
       <c r="H44">
         <f t="shared" si="2"/>
-        <v>87.026865442903016</v>
+        <v>87.018563672605282</v>
       </c>
       <c r="I44">
         <f t="shared" si="3"/>
-        <v>3.0819625487041717</v>
+        <v>2.9858276871008078</v>
       </c>
       <c r="J44">
         <f t="shared" si="4"/>
-        <v>9.8058439935665369</v>
+        <v>9.912942240190926</v>
       </c>
       <c r="K44">
         <f t="shared" si="5"/>
-        <v>6.7125316707320123E-2</v>
+        <v>6.5031494044078014E-2</v>
       </c>
       <c r="L44">
         <f t="shared" si="6"/>
-        <v>1.8202698118962888E-2</v>
+        <v>1.7634906058929554E-2</v>
       </c>
       <c r="P44">
         <v>25.072507909999999</v>
@@ -26051,8 +26051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0188699D-EC8B-4A24-8D21-3FBF9C878E79}">
   <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="AH18" sqref="AH18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26139,7 +26139,7 @@
       </c>
       <c r="D3">
         <f>'mass per m2'!D3/1000</f>
-        <v>1</v>
+        <v>2.0013003899999999</v>
       </c>
       <c r="E3">
         <v>5.3760000000000003</v>
@@ -26163,7 +26163,7 @@
         <v>2009</v>
       </c>
       <c r="AB3">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="AC3">
         <v>31.313555950000001</v>
@@ -26192,7 +26192,7 @@
       </c>
       <c r="D4">
         <f>'mass per m2'!D4/1000</f>
-        <v>1</v>
+        <v>1.9871506589999999</v>
       </c>
       <c r="E4">
         <v>5.3760000000000003</v>
@@ -26216,7 +26216,7 @@
         <v>2010</v>
       </c>
       <c r="AB4">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC4">
         <v>49.33536239</v>
@@ -26245,7 +26245,7 @@
       </c>
       <c r="D5">
         <f>'mass per m2'!D5/1000</f>
-        <v>1</v>
+        <v>1.9665931299999999</v>
       </c>
       <c r="E5">
         <v>5.3760000000000003</v>
@@ -26269,7 +26269,7 @@
         <v>2011</v>
       </c>
       <c r="AB5">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC5">
         <v>49.661818310000001</v>
@@ -26290,7 +26290,7 @@
       </c>
       <c r="B6">
         <f>'mass per m2'!B6/1000</f>
-        <v>8</v>
+        <v>8.08</v>
       </c>
       <c r="C6">
         <f>'mass per m2'!$C$3/100</f>
@@ -26298,7 +26298,7 @@
       </c>
       <c r="D6">
         <f>'mass per m2'!D6/1000</f>
-        <v>1</v>
+        <v>1.9629861980000001</v>
       </c>
       <c r="E6">
         <v>5.3760000000000003</v>
@@ -26322,7 +26322,7 @@
         <v>2012</v>
       </c>
       <c r="AB6">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="AC6">
         <v>48.63711241</v>
@@ -26351,7 +26351,7 @@
       </c>
       <c r="D7">
         <f>'mass per m2'!D7/1000</f>
-        <v>1</v>
+        <v>1.619458128</v>
       </c>
       <c r="E7">
         <v>5.3760000000000003</v>
@@ -26375,7 +26375,7 @@
         <v>2013</v>
       </c>
       <c r="AB7">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="AC7">
         <v>49.920500959999998</v>
@@ -26396,7 +26396,7 @@
       </c>
       <c r="B8">
         <f>'mass per m2'!B8/1000</f>
-        <v>8.32</v>
+        <v>8.2927</v>
       </c>
       <c r="C8">
         <f>'mass per m2'!$C$3/100</f>
@@ -26404,7 +26404,7 @@
       </c>
       <c r="D8">
         <f>'mass per m2'!D8/1000</f>
-        <v>1</v>
+        <v>1.592739726</v>
       </c>
       <c r="E8">
         <v>5.3760000000000003</v>
@@ -26428,7 +26428,7 @@
         <v>2014</v>
       </c>
       <c r="AB8">
-        <v>79</v>
+        <v>95.2</v>
       </c>
       <c r="AC8">
         <v>50.133176429999999</v>
@@ -26449,7 +26449,7 @@
       </c>
       <c r="B9">
         <f>'mass per m2'!B9/1000</f>
-        <v>8.2799999999999994</v>
+        <v>8.2256625000000003</v>
       </c>
       <c r="C9">
         <f>'mass per m2'!$C$3/100</f>
@@ -26457,7 +26457,7 @@
       </c>
       <c r="D9">
         <f>'mass per m2'!D9/1000</f>
-        <v>1</v>
+        <v>1.495242424</v>
       </c>
       <c r="E9">
         <v>5.7881600000000004</v>
@@ -26481,7 +26481,7 @@
         <v>2015</v>
       </c>
       <c r="AB9">
-        <v>80</v>
+        <v>95.5</v>
       </c>
       <c r="AC9">
         <v>50.540356459999998</v>
@@ -26502,7 +26502,7 @@
       </c>
       <c r="B10">
         <f>'mass per m2'!B10/1000</f>
-        <v>8.24</v>
+        <v>8.1588875000000005</v>
       </c>
       <c r="C10">
         <f>'mass per m2'!$C$3/100</f>
@@ -26510,7 +26510,7 @@
       </c>
       <c r="D10">
         <f>'mass per m2'!D10/1000</f>
-        <v>1</v>
+        <v>1.4125263159999999</v>
       </c>
       <c r="E10">
         <v>6.2003199999999996</v>
@@ -26534,7 +26534,7 @@
         <v>2016</v>
       </c>
       <c r="AB10">
-        <v>81</v>
+        <v>95.7</v>
       </c>
       <c r="AC10">
         <v>53.417000399999999</v>
@@ -26555,7 +26555,7 @@
       </c>
       <c r="B11">
         <f>'mass per m2'!B11/1000</f>
-        <v>8.2249999999999996</v>
+        <v>8.2897499999999997</v>
       </c>
       <c r="C11">
         <f>'mass per m2'!$C$3/100</f>
@@ -26563,7 +26563,7 @@
       </c>
       <c r="D11">
         <f>'mass per m2'!D11/1000</f>
-        <v>1</v>
+        <v>1.379820896</v>
       </c>
       <c r="E11">
         <v>7.2038399999999996</v>
@@ -26587,7 +26587,7 @@
         <v>2017</v>
       </c>
       <c r="AB11">
-        <v>82</v>
+        <v>95.9</v>
       </c>
       <c r="AC11">
         <v>59.32333715</v>
@@ -26608,7 +26608,7 @@
       </c>
       <c r="B12">
         <f>'mass per m2'!B12/1000</f>
-        <v>8.75</v>
+        <v>8.3501499999999993</v>
       </c>
       <c r="C12">
         <f>'mass per m2'!$C$3/100</f>
@@ -26616,7 +26616,7 @@
       </c>
       <c r="D12">
         <f>'mass per m2'!D12/1000</f>
-        <v>1</v>
+        <v>1.3616666669999999</v>
       </c>
       <c r="E12">
         <v>7.45472</v>
@@ -26640,7 +26640,7 @@
         <v>2018</v>
       </c>
       <c r="AB12">
-        <v>82</v>
+        <v>96.2</v>
       </c>
       <c r="AC12">
         <v>63.600552669999999</v>
@@ -26661,7 +26661,7 @@
       </c>
       <c r="B13">
         <f>'mass per m2'!B13/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.6074999999999999</v>
       </c>
       <c r="C13">
         <f>'mass per m2'!$C$3/100</f>
@@ -26669,7 +26669,7 @@
       </c>
       <c r="D13">
         <f>'mass per m2'!D13/1000</f>
-        <v>1</v>
+        <v>1.3436470589999998</v>
       </c>
       <c r="E13">
         <v>8.26112</v>
@@ -26693,7 +26693,7 @@
         <v>2019</v>
       </c>
       <c r="AB13">
-        <v>82</v>
+        <v>96.4</v>
       </c>
       <c r="AC13">
         <v>65.063940110000004</v>
@@ -26714,7 +26714,7 @@
       </c>
       <c r="B14">
         <f>'mass per m2'!B14/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.8981250000000003</v>
       </c>
       <c r="C14">
         <f>'mass per m2'!$C$3/100</f>
@@ -26722,7 +26722,7 @@
       </c>
       <c r="D14">
         <f>'mass per m2'!D14/1000</f>
-        <v>1</v>
+        <v>1.3150588239999998</v>
       </c>
       <c r="E14">
         <v>8.2252799999999997</v>
@@ -26746,7 +26746,7 @@
         <v>2020</v>
       </c>
       <c r="AB14">
-        <v>83</v>
+        <v>96.6</v>
       </c>
       <c r="AC14">
         <v>66.726759759999993</v>
@@ -26767,7 +26767,7 @@
       </c>
       <c r="B15">
         <f>'mass per m2'!B15/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.9247499999999995</v>
       </c>
       <c r="C15">
         <f>'mass per m2'!$C$3/100</f>
@@ -26775,7 +26775,7 @@
       </c>
       <c r="D15">
         <f>'mass per m2'!D15/1000</f>
-        <v>1</v>
+        <v>1.293617647</v>
       </c>
       <c r="E15">
         <v>8.2700800000000001</v>
@@ -26799,7 +26799,7 @@
         <v>2021</v>
       </c>
       <c r="AB15">
-        <v>83</v>
+        <v>96.9</v>
       </c>
       <c r="AC15">
         <v>66.180844960000002</v>
@@ -26820,7 +26820,7 @@
       </c>
       <c r="B16">
         <f>'mass per m2'!B16/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.9504999999999999</v>
       </c>
       <c r="C16">
         <f>'mass per m2'!$C$3/100</f>
@@ -26828,7 +26828,7 @@
       </c>
       <c r="D16">
         <f>'mass per m2'!D16/1000</f>
-        <v>1</v>
+        <v>1.2721764710000001</v>
       </c>
       <c r="E16">
         <v>8.3148800000000005</v>
@@ -26852,7 +26852,7 @@
         <v>2022</v>
       </c>
       <c r="AB16">
-        <v>83</v>
+        <v>97.1</v>
       </c>
       <c r="AC16">
         <v>65.587672920000003</v>
@@ -26873,7 +26873,7 @@
       </c>
       <c r="B17">
         <f>'mass per m2'!B17/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.9408250000000002</v>
       </c>
       <c r="C17">
         <f>'mass per m2'!$C$3/100</f>
@@ -26881,7 +26881,7 @@
       </c>
       <c r="D17">
         <f>'mass per m2'!D17/1000</f>
-        <v>1</v>
+        <v>1.2292941180000001</v>
       </c>
       <c r="E17">
         <v>8.3865599999999993</v>
@@ -26905,7 +26905,7 @@
         <v>2023</v>
       </c>
       <c r="AB17">
-        <v>83</v>
+        <v>97.4</v>
       </c>
       <c r="AC17">
         <v>66.98371616</v>
@@ -26926,7 +26926,7 @@
       </c>
       <c r="B18">
         <f>'mass per m2'!B18/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.9280000000000008</v>
       </c>
       <c r="C18">
         <f>'mass per m2'!$C$3/100</f>
@@ -26934,7 +26934,7 @@
       </c>
       <c r="D18">
         <f>'mass per m2'!D18/1000</f>
-        <v>1</v>
+        <v>1.1864117650000001</v>
       </c>
       <c r="E18">
         <v>8.45824</v>
@@ -26958,7 +26958,7 @@
         <v>2024</v>
       </c>
       <c r="AB18">
-        <v>83</v>
+        <v>97.6</v>
       </c>
       <c r="AC18">
         <v>68.784939679999994</v>
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B19">
         <f>'mass per m2'!B19/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.945933333000001</v>
       </c>
       <c r="C19">
         <f>'mass per m2'!$C$3/100</f>
@@ -26987,7 +26987,7 @@
       </c>
       <c r="D19">
         <f>'mass per m2'!D19/1000</f>
-        <v>1</v>
+        <v>1.1578235290000001</v>
       </c>
       <c r="E19">
         <v>8.1954133329999994</v>
@@ -27011,7 +27011,7 @@
         <v>2025</v>
       </c>
       <c r="AB19">
-        <v>83</v>
+        <v>97.8</v>
       </c>
       <c r="AC19">
         <v>69.379740209999994</v>
@@ -27032,7 +27032,7 @@
       </c>
       <c r="B20">
         <f>'mass per m2'!B20/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.9629333330000005</v>
       </c>
       <c r="C20">
         <f>'mass per m2'!$C$3/100</f>
@@ -27040,7 +27040,7 @@
       </c>
       <c r="D20">
         <f>'mass per m2'!D20/1000</f>
-        <v>1</v>
+        <v>1.1292352940000001</v>
       </c>
       <c r="E20">
         <v>7.9325866669999998</v>
@@ -27064,7 +27064,7 @@
         <v>2026</v>
       </c>
       <c r="AB20">
-        <v>83</v>
+        <v>98.1</v>
       </c>
       <c r="AC20">
         <v>69.848360650000004</v>
@@ -27085,7 +27085,7 @@
       </c>
       <c r="B21">
         <f>'mass per m2'!B21/1000</f>
-        <v>8.8000000000000007</v>
+        <v>8.9789999999999992</v>
       </c>
       <c r="C21">
         <f>'mass per m2'!$C$3/100</f>
@@ -27093,7 +27093,7 @@
       </c>
       <c r="D21">
         <f>'mass per m2'!D21/1000</f>
-        <v>1</v>
+        <v>1.1006470589999999</v>
       </c>
       <c r="E21">
         <v>7.6697600000000001</v>
@@ -27117,7 +27117,7 @@
         <v>2027</v>
       </c>
       <c r="AB21">
-        <v>83</v>
+        <v>98.3</v>
       </c>
       <c r="AC21">
         <v>70.190564620000004</v>
@@ -27138,7 +27138,7 @@
       </c>
       <c r="B22">
         <f>'mass per m2'!B22/1000</f>
-        <v>8.875</v>
+        <v>9.0400694440000002</v>
       </c>
       <c r="C22">
         <f>'mass per m2'!$C$3/100</f>
@@ -27146,7 +27146,7 @@
       </c>
       <c r="D22">
         <f>'mass per m2'!D22/1000</f>
-        <v>1</v>
+        <v>1.0815882349999999</v>
       </c>
       <c r="E22">
         <v>7.3949866670000004</v>
@@ -27170,7 +27170,7 @@
         <v>2028</v>
       </c>
       <c r="AB22">
-        <v>83</v>
+        <v>98.5</v>
       </c>
       <c r="AC22">
         <v>70.655697110000006</v>
@@ -27191,7 +27191,7 @@
       </c>
       <c r="B23">
         <f>'mass per m2'!B23/1000</f>
-        <v>8.875</v>
+        <v>9.1003611109999998</v>
       </c>
       <c r="C23">
         <f>'mass per m2'!$C$3/100</f>
@@ -27199,7 +27199,7 @@
       </c>
       <c r="D23">
         <f>'mass per m2'!D23/1000</f>
-        <v>1</v>
+        <v>1.0625294120000002</v>
       </c>
       <c r="E23">
         <v>7.1202133329999997</v>
@@ -27223,7 +27223,7 @@
         <v>2029</v>
       </c>
       <c r="AB23">
-        <v>83</v>
+        <v>98.8</v>
       </c>
       <c r="AC23">
         <v>71.125574380000003</v>
@@ -27244,7 +27244,7 @@
       </c>
       <c r="B24">
         <f>'mass per m2'!B24/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C24">
         <f>'mass per m2'!$C$3/100</f>
@@ -27252,7 +27252,7 @@
       </c>
       <c r="D24">
         <f>'mass per m2'!D24/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E24">
         <v>6.84544</v>
@@ -27276,7 +27276,7 @@
         <v>2030</v>
       </c>
       <c r="AB24">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC24">
         <v>71.600236780000003</v>
@@ -27297,7 +27297,7 @@
       </c>
       <c r="B25">
         <f>'mass per m2'!B25/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C25">
         <f>'mass per m2'!$C$3/100</f>
@@ -27305,7 +27305,7 @@
       </c>
       <c r="D25">
         <f>'mass per m2'!D25/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E25">
         <v>6.84544</v>
@@ -27329,7 +27329,7 @@
         <v>2031</v>
       </c>
       <c r="AB25">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC25">
         <v>71.600236780000003</v>
@@ -27350,7 +27350,7 @@
       </c>
       <c r="B26">
         <f>'mass per m2'!B26/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C26">
         <f>'mass per m2'!$C$3/100</f>
@@ -27358,7 +27358,7 @@
       </c>
       <c r="D26">
         <f>'mass per m2'!D26/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E26">
         <v>6.84544</v>
@@ -27382,7 +27382,7 @@
         <v>2032</v>
       </c>
       <c r="AB26">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC26">
         <v>71.600236780000003</v>
@@ -27403,7 +27403,7 @@
       </c>
       <c r="B27">
         <f>'mass per m2'!B27/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C27">
         <f>'mass per m2'!$C$3/100</f>
@@ -27411,7 +27411,7 @@
       </c>
       <c r="D27">
         <f>'mass per m2'!D27/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E27">
         <v>6.84544</v>
@@ -27435,7 +27435,7 @@
         <v>2033</v>
       </c>
       <c r="AB27">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC27">
         <v>71.600236780000003</v>
@@ -27456,7 +27456,7 @@
       </c>
       <c r="B28">
         <f>'mass per m2'!B28/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C28">
         <f>'mass per m2'!$C$3/100</f>
@@ -27464,7 +27464,7 @@
       </c>
       <c r="D28">
         <f>'mass per m2'!D28/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E28">
         <v>6.84544</v>
@@ -27488,7 +27488,7 @@
         <v>2034</v>
       </c>
       <c r="AB28">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC28">
         <v>71.600236780000003</v>
@@ -27509,7 +27509,7 @@
       </c>
       <c r="B29">
         <f>'mass per m2'!B29/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C29">
         <f>'mass per m2'!$C$3/100</f>
@@ -27517,7 +27517,7 @@
       </c>
       <c r="D29">
         <f>'mass per m2'!D29/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E29">
         <v>6.84544</v>
@@ -27541,7 +27541,7 @@
         <v>2035</v>
       </c>
       <c r="AB29">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC29">
         <v>71.600236780000003</v>
@@ -27562,7 +27562,7 @@
       </c>
       <c r="B30">
         <f>'mass per m2'!B30/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C30">
         <f>'mass per m2'!$C$3/100</f>
@@ -27570,7 +27570,7 @@
       </c>
       <c r="D30">
         <f>'mass per m2'!D30/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E30">
         <v>6.84544</v>
@@ -27594,7 +27594,7 @@
         <v>2036</v>
       </c>
       <c r="AB30">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC30">
         <v>71.600236780000003</v>
@@ -27615,7 +27615,7 @@
       </c>
       <c r="B31">
         <f>'mass per m2'!B31/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C31">
         <f>'mass per m2'!$C$3/100</f>
@@ -27623,7 +27623,7 @@
       </c>
       <c r="D31">
         <f>'mass per m2'!D31/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E31">
         <v>6.84544</v>
@@ -27647,7 +27647,7 @@
         <v>2037</v>
       </c>
       <c r="AB31">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC31">
         <v>71.600236780000003</v>
@@ -27668,7 +27668,7 @@
       </c>
       <c r="B32">
         <f>'mass per m2'!B32/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C32">
         <f>'mass per m2'!$C$3/100</f>
@@ -27676,7 +27676,7 @@
       </c>
       <c r="D32">
         <f>'mass per m2'!D32/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E32">
         <v>6.84544</v>
@@ -27700,7 +27700,7 @@
         <v>2038</v>
       </c>
       <c r="AB32">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC32">
         <v>71.600236780000003</v>
@@ -27721,7 +27721,7 @@
       </c>
       <c r="B33">
         <f>'mass per m2'!B33/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C33">
         <f>'mass per m2'!$C$3/100</f>
@@ -27729,7 +27729,7 @@
       </c>
       <c r="D33">
         <f>'mass per m2'!D33/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E33">
         <v>6.84544</v>
@@ -27753,7 +27753,7 @@
         <v>2039</v>
       </c>
       <c r="AB33">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC33">
         <v>71.600236780000003</v>
@@ -27774,7 +27774,7 @@
       </c>
       <c r="B34">
         <f>'mass per m2'!B34/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C34">
         <f>'mass per m2'!$C$3/100</f>
@@ -27782,7 +27782,7 @@
       </c>
       <c r="D34">
         <f>'mass per m2'!D34/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E34">
         <v>6.84544</v>
@@ -27806,7 +27806,7 @@
         <v>2040</v>
       </c>
       <c r="AB34">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC34">
         <v>71.600236780000003</v>
@@ -27827,7 +27827,7 @@
       </c>
       <c r="B35">
         <f>'mass per m2'!B35/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C35">
         <f>'mass per m2'!$C$3/100</f>
@@ -27835,7 +27835,7 @@
       </c>
       <c r="D35">
         <f>'mass per m2'!D35/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E35">
         <v>6.84544</v>
@@ -27859,7 +27859,7 @@
         <v>2041</v>
       </c>
       <c r="AB35">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC35">
         <v>71.600236780000003</v>
@@ -27880,7 +27880,7 @@
       </c>
       <c r="B36">
         <f>'mass per m2'!B36/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C36">
         <f>'mass per m2'!$C$3/100</f>
@@ -27888,7 +27888,7 @@
       </c>
       <c r="D36">
         <f>'mass per m2'!D36/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E36">
         <v>6.84544</v>
@@ -27927,7 +27927,7 @@
         <v>2042</v>
       </c>
       <c r="AB36">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC36">
         <v>71.600236780000003</v>
@@ -27948,7 +27948,7 @@
       </c>
       <c r="B37">
         <f>'mass per m2'!B37/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C37">
         <f>'mass per m2'!$C$3/100</f>
@@ -27956,7 +27956,7 @@
       </c>
       <c r="D37">
         <f>'mass per m2'!D37/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E37">
         <v>6.84544</v>
@@ -27998,7 +27998,7 @@
         <v>2043</v>
       </c>
       <c r="AB37">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC37">
         <v>71.600236780000003</v>
@@ -28019,7 +28019,7 @@
       </c>
       <c r="B38">
         <f>'mass per m2'!B38/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C38">
         <f>'mass per m2'!$C$3/100</f>
@@ -28027,7 +28027,7 @@
       </c>
       <c r="D38">
         <f>'mass per m2'!D38/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E38">
         <v>6.84544</v>
@@ -28069,7 +28069,7 @@
         <v>2044</v>
       </c>
       <c r="AB38">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC38">
         <v>71.600236780000003</v>
@@ -28090,7 +28090,7 @@
       </c>
       <c r="B39">
         <f>'mass per m2'!B39/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C39">
         <f>'mass per m2'!$C$3/100</f>
@@ -28098,7 +28098,7 @@
       </c>
       <c r="D39">
         <f>'mass per m2'!D39/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E39">
         <v>6.84544</v>
@@ -28140,7 +28140,7 @@
         <v>2045</v>
       </c>
       <c r="AB39">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC39">
         <v>71.600236780000003</v>
@@ -28161,7 +28161,7 @@
       </c>
       <c r="B40">
         <f>'mass per m2'!B40/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C40">
         <f>'mass per m2'!$C$3/100</f>
@@ -28169,7 +28169,7 @@
       </c>
       <c r="D40">
         <f>'mass per m2'!D40/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E40">
         <v>6.84544</v>
@@ -28193,7 +28193,7 @@
         <v>2046</v>
       </c>
       <c r="AB40">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC40">
         <v>71.600236780000003</v>
@@ -28214,7 +28214,7 @@
       </c>
       <c r="B41">
         <f>'mass per m2'!B41/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C41">
         <f>'mass per m2'!$C$3/100</f>
@@ -28222,7 +28222,7 @@
       </c>
       <c r="D41">
         <f>'mass per m2'!D41/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E41">
         <v>6.84544</v>
@@ -28246,7 +28246,7 @@
         <v>2047</v>
       </c>
       <c r="AB41">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC41">
         <v>71.600236780000003</v>
@@ -28267,7 +28267,7 @@
       </c>
       <c r="B42">
         <f>'mass per m2'!B42/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C42">
         <f>'mass per m2'!$C$3/100</f>
@@ -28275,7 +28275,7 @@
       </c>
       <c r="D42">
         <f>'mass per m2'!D42/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E42">
         <v>6.84544</v>
@@ -28299,7 +28299,7 @@
         <v>2048</v>
       </c>
       <c r="AB42">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC42">
         <v>71.600236780000003</v>
@@ -28320,7 +28320,7 @@
       </c>
       <c r="B43">
         <f>'mass per m2'!B43/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C43">
         <f>'mass per m2'!$C$3/100</f>
@@ -28328,7 +28328,7 @@
       </c>
       <c r="D43">
         <f>'mass per m2'!D43/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E43">
         <v>6.84544</v>
@@ -28352,7 +28352,7 @@
         <v>2049</v>
       </c>
       <c r="AB43">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC43">
         <v>71.600236780000003</v>
@@ -28373,7 +28373,7 @@
       </c>
       <c r="B44">
         <f>'mass per m2'!B44/1000</f>
-        <v>8.875</v>
+        <v>9.1598749999999995</v>
       </c>
       <c r="C44">
         <f>'mass per m2'!$C$3/100</f>
@@ -28381,7 +28381,7 @@
       </c>
       <c r="D44">
         <f>'mass per m2'!D44/1000</f>
-        <v>1</v>
+        <v>1.0434705879999999</v>
       </c>
       <c r="E44">
         <v>6.84544</v>
@@ -28405,7 +28405,7 @@
         <v>2050</v>
       </c>
       <c r="AB44">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="AC44">
         <v>71.600236780000003</v>
@@ -28435,8 +28435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2886825C-AE4A-4EAF-970C-700F7CC3D78A}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection sqref="A1:F43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28466,13 +28466,13 @@
         <v>2009</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="C2">
         <v>31.313555950000001</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2">
         <v>90</v>
@@ -28486,13 +28486,13 @@
         <v>2010</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C3">
         <v>49.33536239</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -28506,13 +28506,13 @@
         <v>2011</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C4">
         <v>49.661818310000001</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4">
         <v>90</v>
@@ -28526,13 +28526,13 @@
         <v>2012</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>48.63711241</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>90</v>
@@ -28546,13 +28546,13 @@
         <v>2013</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="C6">
         <v>49.920500959999998</v>
       </c>
       <c r="D6">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E6">
         <v>90</v>
@@ -28566,13 +28566,13 @@
         <v>2014</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>95.2</v>
       </c>
       <c r="C7">
         <v>50.133176429999999</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7">
         <v>90</v>
@@ -28586,13 +28586,13 @@
         <v>2015</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>95.5</v>
       </c>
       <c r="C8">
         <v>50.540356459999998</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8">
         <v>90</v>
@@ -28606,13 +28606,13 @@
         <v>2016</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>95.7</v>
       </c>
       <c r="C9">
         <v>53.417000399999999</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E9">
         <v>90</v>
@@ -28626,13 +28626,13 @@
         <v>2017</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>95.9</v>
       </c>
       <c r="C10">
         <v>59.32333715</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E10">
         <v>90</v>
@@ -28646,13 +28646,13 @@
         <v>2018</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>96.2</v>
       </c>
       <c r="C11">
         <v>63.600552669999999</v>
       </c>
       <c r="D11">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E11">
         <v>90</v>
@@ -28666,13 +28666,13 @@
         <v>2019</v>
       </c>
       <c r="B12">
-        <v>82</v>
+        <v>96.4</v>
       </c>
       <c r="C12">
         <v>65.063940110000004</v>
       </c>
       <c r="D12">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E12">
         <v>90</v>
@@ -28686,13 +28686,13 @@
         <v>2020</v>
       </c>
       <c r="B13">
-        <v>83</v>
+        <v>96.6</v>
       </c>
       <c r="C13">
         <v>66.726759759999993</v>
       </c>
       <c r="D13">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13">
         <v>90</v>
@@ -28706,13 +28706,13 @@
         <v>2021</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>96.9</v>
       </c>
       <c r="C14">
         <v>66.180844960000002</v>
       </c>
       <c r="D14">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E14">
         <v>90</v>
@@ -28726,13 +28726,13 @@
         <v>2022</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>97.1</v>
       </c>
       <c r="C15">
         <v>65.587672920000003</v>
       </c>
       <c r="D15">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E15">
         <v>90</v>
@@ -28746,13 +28746,13 @@
         <v>2023</v>
       </c>
       <c r="B16">
-        <v>83</v>
+        <v>97.4</v>
       </c>
       <c r="C16">
         <v>66.98371616</v>
       </c>
       <c r="D16">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>90</v>
@@ -28766,13 +28766,13 @@
         <v>2024</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>97.6</v>
       </c>
       <c r="C17">
         <v>68.784939679999994</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E17">
         <v>90</v>
@@ -28786,13 +28786,13 @@
         <v>2025</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>97.8</v>
       </c>
       <c r="C18">
         <v>69.379740209999994</v>
       </c>
       <c r="D18">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E18">
         <v>90</v>
@@ -28806,13 +28806,13 @@
         <v>2026</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>98.1</v>
       </c>
       <c r="C19">
         <v>69.848360650000004</v>
       </c>
       <c r="D19">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19">
         <v>90</v>
@@ -28826,13 +28826,13 @@
         <v>2027</v>
       </c>
       <c r="B20">
-        <v>83</v>
+        <v>98.3</v>
       </c>
       <c r="C20">
         <v>70.190564620000004</v>
       </c>
       <c r="D20">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E20">
         <v>90</v>
@@ -28846,13 +28846,13 @@
         <v>2028</v>
       </c>
       <c r="B21">
-        <v>83</v>
+        <v>98.5</v>
       </c>
       <c r="C21">
         <v>70.655697110000006</v>
       </c>
       <c r="D21">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21">
         <v>90</v>
@@ -28866,13 +28866,13 @@
         <v>2029</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>98.8</v>
       </c>
       <c r="C22">
         <v>71.125574380000003</v>
       </c>
       <c r="D22">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E22">
         <v>90</v>
@@ -28886,13 +28886,13 @@
         <v>2030</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>71.600236780000003</v>
       </c>
       <c r="D23">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E23">
         <v>90</v>
@@ -28906,13 +28906,13 @@
         <v>2031</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C24">
         <v>71.600236780000003</v>
       </c>
       <c r="D24">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E24">
         <v>90</v>
@@ -28926,13 +28926,13 @@
         <v>2032</v>
       </c>
       <c r="B25">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C25">
         <v>71.600236780000003</v>
       </c>
       <c r="D25">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E25">
         <v>90</v>
@@ -28946,13 +28946,13 @@
         <v>2033</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C26">
         <v>71.600236780000003</v>
       </c>
       <c r="D26">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26">
         <v>90</v>
@@ -28966,13 +28966,13 @@
         <v>2034</v>
       </c>
       <c r="B27">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C27">
         <v>71.600236780000003</v>
       </c>
       <c r="D27">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E27">
         <v>90</v>
@@ -28986,13 +28986,13 @@
         <v>2035</v>
       </c>
       <c r="B28">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C28">
         <v>71.600236780000003</v>
       </c>
       <c r="D28">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28">
         <v>90</v>
@@ -29006,13 +29006,13 @@
         <v>2036</v>
       </c>
       <c r="B29">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C29">
         <v>71.600236780000003</v>
       </c>
       <c r="D29">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E29">
         <v>90</v>
@@ -29026,13 +29026,13 @@
         <v>2037</v>
       </c>
       <c r="B30">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C30">
         <v>71.600236780000003</v>
       </c>
       <c r="D30">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E30">
         <v>90</v>
@@ -29046,13 +29046,13 @@
         <v>2038</v>
       </c>
       <c r="B31">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C31">
         <v>71.600236780000003</v>
       </c>
       <c r="D31">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E31">
         <v>90</v>
@@ -29066,13 +29066,13 @@
         <v>2039</v>
       </c>
       <c r="B32">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>71.600236780000003</v>
       </c>
       <c r="D32">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E32">
         <v>90</v>
@@ -29086,13 +29086,13 @@
         <v>2040</v>
       </c>
       <c r="B33">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C33">
         <v>71.600236780000003</v>
       </c>
       <c r="D33">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E33">
         <v>90</v>
@@ -29106,13 +29106,13 @@
         <v>2041</v>
       </c>
       <c r="B34">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C34">
         <v>71.600236780000003</v>
       </c>
       <c r="D34">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E34">
         <v>90</v>
@@ -29126,13 +29126,13 @@
         <v>2042</v>
       </c>
       <c r="B35">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C35">
         <v>71.600236780000003</v>
       </c>
       <c r="D35">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35">
         <v>90</v>
@@ -29146,13 +29146,13 @@
         <v>2043</v>
       </c>
       <c r="B36">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>71.600236780000003</v>
       </c>
       <c r="D36">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E36">
         <v>90</v>
@@ -29166,13 +29166,13 @@
         <v>2044</v>
       </c>
       <c r="B37">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>71.600236780000003</v>
       </c>
       <c r="D37">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E37">
         <v>90</v>
@@ -29186,13 +29186,13 @@
         <v>2045</v>
       </c>
       <c r="B38">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>71.600236780000003</v>
       </c>
       <c r="D38">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E38">
         <v>90</v>
@@ -29206,13 +29206,13 @@
         <v>2046</v>
       </c>
       <c r="B39">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C39">
         <v>71.600236780000003</v>
       </c>
       <c r="D39">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39">
         <v>90</v>
@@ -29226,13 +29226,13 @@
         <v>2047</v>
       </c>
       <c r="B40">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C40">
         <v>71.600236780000003</v>
       </c>
       <c r="D40">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>90</v>
@@ -29246,13 +29246,13 @@
         <v>2048</v>
       </c>
       <c r="B41">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C41">
         <v>71.600236780000003</v>
       </c>
       <c r="D41">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E41">
         <v>90</v>
@@ -29266,13 +29266,13 @@
         <v>2049</v>
       </c>
       <c r="B42">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C42">
         <v>71.600236780000003</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E42">
         <v>90</v>
@@ -29286,13 +29286,13 @@
         <v>2050</v>
       </c>
       <c r="B43">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C43">
         <v>71.600236780000003</v>
       </c>
       <c r="D43">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43">
         <v>90</v>
